--- a/xlsx/_wiki_红烛蛇菰_intext.xlsx
+++ b/xlsx/_wiki_红烛蛇菰_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>红烛蛇菰</t>
   </si>
@@ -84,12 +84,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
 </sst>
 </file>
@@ -438,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -719,29 +713,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/xlsx/_wiki_红烛蛇菰_intext.xlsx
+++ b/xlsx/_wiki_红烛蛇菰_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>红烛蛇菰</t>
   </si>
@@ -23,67 +23,58 @@
     <t>https://zh.wikipedia.org/zh-cn/%E7%BA%A2%E7%83%9B%E8%9B%87%E8%8F%B0</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%88%86%E9%A1%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%A7%91%E5%AD%B8%E5%88%86%E9%A1%9E</t>
   </si>
   <si>
     <t>科学分类</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E7%95%8C</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%A4%8D%E7%89%A9%E7%95%8C</t>
   </si>
   <si>
     <t>植物界</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%9B%87%E8%8F%B0%E7%A7%91</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%9B%87%E8%8F%B0%E7%A7%91</t>
   </si>
   <si>
     <t>蛇菰科</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%9B%87%E8%8F%B0%E5%B1%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%9B%87%E8%8F%B0%E5%B1%9E</t>
   </si>
   <si>
     <t>蛇菰属</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%90%8D%E6%B3%95</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BA%8C%E5%90%8D%E6%B3%95</t>
   </si>
   <si>
     <t>二名法</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E5%90%8D</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AD%A6%E5%90%8D</t>
   </si>
   <si>
     <t>学名</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%A4%8D%E7%89%A9%E7%89%A9%E7%A7%8D%E4%BF%A1%E6%81%AF%E6%95%B0%E6%8D%AE%E5%BA%93</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%9B%BD%E6%A4%8D%E7%89%A9%E7%89%A9%E7%A7%8D%E4%BF%A1%E6%81%AF%E6%95%B0%E6%8D%AE%E5%BA%93</t>
   </si>
   <si>
     <t>中国植物物种信息数据库</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%89%A9%E7%A8%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%B6%AD%E5%9F%BA%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
     <t>维基物种</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:Plant-stub</t>
+    <t>https://zh.wikipedia.org/zh-cn/Template_talk:Plant-stub</t>
   </si>
   <si>
     <t>Template talk-Plant-stub</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E7%83%9B%E8%9B%87%E8%8F%B0</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -432,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,52 +658,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
